--- a/zhaojing.xlsx
+++ b/zhaojing.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="133">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -84,7 +85,10 @@
     <t xml:space="preserve">161725</t>
   </si>
   <si>
-    <t xml:space="preserve">570008</t>
+    <t xml:space="preserve">高大高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003095</t>
   </si>
   <si>
     <t xml:space="preserve">001102</t>
@@ -109,7 +113,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">003095</t>
+    <t xml:space="preserve">570008</t>
   </si>
   <si>
     <t xml:space="preserve">570001</t>
@@ -118,37 +122,64 @@
     <t xml:space="preserve">000083</t>
   </si>
   <si>
+    <t xml:space="preserve">162203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">低小，大量定投</t>
+  </si>
+  <si>
     <t xml:space="preserve">001679</t>
   </si>
   <si>
+    <t xml:space="preserve">750001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000209</t>
+  </si>
+  <si>
     <t xml:space="preserve">005827</t>
   </si>
   <si>
-    <t xml:space="preserve">000209</t>
-  </si>
-  <si>
     <t xml:space="preserve">003940</t>
   </si>
   <si>
+    <t xml:space="preserve">000336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高大低，定投</t>
+  </si>
+  <si>
     <t xml:space="preserve">519150</t>
   </si>
   <si>
+    <t xml:space="preserve">006253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">低大低，定投</t>
+  </si>
+  <si>
     <t xml:space="preserve">001938</t>
   </si>
   <si>
-    <t xml:space="preserve">001951</t>
+    <t xml:space="preserve">000263</t>
   </si>
   <si>
     <t xml:space="preserve">519068</t>
   </si>
   <si>
+    <t xml:space="preserve">001716</t>
+  </si>
+  <si>
     <t xml:space="preserve">180012</t>
   </si>
   <si>
-    <t xml:space="preserve">001716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005875</t>
+    <t xml:space="preserve">001718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166019</t>
   </si>
   <si>
     <t xml:space="preserve">169104</t>
@@ -173,34 +204,64 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">005875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付宝不开放买卖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004235</t>
+  </si>
+  <si>
     <t xml:space="preserve">519736</t>
   </si>
   <si>
+    <t xml:space="preserve">004848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004997</t>
+  </si>
+  <si>
     <t xml:space="preserve">004788</t>
   </si>
   <si>
-    <t xml:space="preserve">160632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004997</t>
+    <t xml:space="preserve">004789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">试探－指数</t>
   </si>
   <si>
     <t xml:space="preserve">003984</t>
   </si>
   <si>
+    <t xml:space="preserve">000248</t>
+  </si>
+  <si>
     <t xml:space="preserve">240011</t>
   </si>
   <si>
-    <t xml:space="preserve">000248</t>
+    <t xml:space="preserve">100060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">090018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001500</t>
   </si>
   <si>
     <t xml:space="preserve">166001</t>
   </si>
   <si>
-    <t xml:space="preserve">100060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090018</t>
+    <t xml:space="preserve">001951</t>
   </si>
   <si>
     <t xml:space="preserve">004131</t>
@@ -209,9 +270,6 @@
     <t xml:space="preserve">260101</t>
   </si>
   <si>
-    <t xml:space="preserve">001500</t>
-  </si>
-  <si>
     <t xml:space="preserve">100020</t>
   </si>
   <si>
@@ -222,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">007994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004604</t>
   </si>
   <si>
     <t xml:space="preserve">011854</t>
@@ -246,10 +307,19 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">007549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217022</t>
+  </si>
+  <si>
     <t xml:space="preserve">001857</t>
   </si>
   <si>
-    <t xml:space="preserve">217022</t>
+    <t xml:space="preserve">502000</t>
   </si>
   <si>
     <t xml:space="preserve">470058</t>
@@ -274,22 +344,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">502000</t>
+    <t xml:space="preserve">006102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">006733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关注</t>
   </si>
   <si>
     <t xml:space="preserve">161726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">006733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">006102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002959</t>
   </si>
   <si>
     <t xml:space="preserve">005918</t>
@@ -316,6 +383,156 @@
   <si>
     <t xml:space="preserve">675113</t>
   </si>
+  <si>
+    <t xml:space="preserve">试探－混合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">540003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">006440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">516200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">516660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">516850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">516090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011513</t>
+  </si>
 </sst>
 </file>
 
@@ -324,7 +541,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -358,13 +575,26 @@
       <name val="AR PL SungtiL GB"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="AR PL SungtiL GB"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -408,7 +638,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,11 +647,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,15 +676,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,396 +697,1079 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I58" activeCellId="0" sqref="I58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>47</v>
+      <c r="B28" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
